--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/15/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.004</v>
+        <v>-7.192</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.875999999999999</v>
+        <v>5.933</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.158</v>
+        <v>16.263</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.694</v>
+        <v>17.924</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.662000000000001</v>
+        <v>5.756</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.034</v>
+        <v>9.238000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.696</v>
+        <v>7.179</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>17.032</v>
+        <v>16.842</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.114</v>
+        <v>5.029</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.314</v>
+        <v>-7.648000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>17.106</v>
+        <v>17.157</v>
       </c>
     </row>
     <row r="26">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.741999999999999</v>
+        <v>6.182</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.619999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.602</v>
+        <v>6.006</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.836</v>
+        <v>-8.222</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.726000000000001</v>
+        <v>-7.782999999999999</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.084000000000001</v>
+        <v>-7.414999999999999</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.418</v>
+        <v>16.45</v>
       </c>
     </row>
     <row r="51">
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.169999999999998</v>
+        <v>-8.294</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.146000000000001</v>
+        <v>-8.054</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.096</v>
+        <v>6.455</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.94</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="54">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.028</v>
+        <v>-8.035</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.443999999999999</v>
+        <v>-8.135999999999999</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1400,16 +1400,16 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.638</v>
+        <v>4.925</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.167999999999999</v>
+        <v>-8.059999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>16.608</v>
+        <v>16.623</v>
       </c>
     </row>
     <row r="58">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.578</v>
+        <v>5.145</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.49</v>
+        <v>16.628</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.694</v>
+        <v>17.656</v>
       </c>
     </row>
     <row r="64">
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.473999999999999</v>
+        <v>5.08</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.782</v>
+        <v>17.594</v>
       </c>
     </row>
     <row r="71">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.703999999999999</v>
+        <v>-8.278000000000002</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>7.136</v>
+        <v>6.266</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.132</v>
+        <v>5.915</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.934</v>
+        <v>16.394</v>
       </c>
     </row>
     <row r="87">
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.322000000000001</v>
+        <v>-6.356</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.62</v>
+        <v>-7.507</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>4.766</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.313999999999999</v>
+        <v>-6.62</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.880000000000001</v>
+        <v>5.898999999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.502</v>
+        <v>16.487</v>
       </c>
     </row>
     <row r="99">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.234</v>
+        <v>16.617</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>15.818</v>
+        <v>16.205</v>
       </c>
     </row>
   </sheetData>
